--- a/data/Unicrypt/Unicrypt20190701.xlsx
+++ b/data/Unicrypt/Unicrypt20190701.xlsx
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
